--- a/Моечная машина Adelio latuada/ТО/2022/График ТО на декабрь.xlsx
+++ b/Моечная машина Adelio latuada/ТО/2022/График ТО на декабрь.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Для операторов" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="30">
   <si>
     <t xml:space="preserve">ТО вертикальной моечной машины ADELIO LATTUADA инв.№55550183 и инв.№55550264 для операторов</t>
   </si>
@@ -159,76 +159,16 @@
     <t xml:space="preserve">Смазка винта домкрата открытия конвейера</t>
   </si>
   <si>
+    <t xml:space="preserve">Проверка состояния щеток и при необходимости их замена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обслуживающий персонал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТО вертикальной моечной машины ADELIO LATTUADA инв.№55550160 для механиков</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проверка состояния щеток и при необходимости замена</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТО вертикальной моечной машины ADELIO LATTUADA инв.№55550183 для механиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">отметка о выполнении</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Проверка и при необходимости р</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">егулировка натяжения цепи мотора-редуктора входного и выходного транспортеров</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Проверка и при необходимости р</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">егулировка натяжения цепи мотор-редуктора открытия моторизованного конвейера</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Проверка и при необходимости р</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">егулировка натяжения приводных ремней щеток</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Поставить + о выполнении обслуживания</t>
   </si>
 </sst>
 </file>
@@ -352,7 +292,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -421,20 +361,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -516,7 +448,7 @@
   </sheetPr>
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1399,10 +1331,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1594,53 +1526,51 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="13"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
+      <c r="N5" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
-      <c r="Q5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="13"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
-      <c r="U5" s="13"/>
+      <c r="U5" s="9"/>
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
-      <c r="X5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y5" s="13"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
-      <c r="AB5" s="13"/>
+      <c r="AB5" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
-      <c r="AE5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF5" s="13"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
       <c r="AG5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,12 +1592,12 @@
       <c r="K6" s="9"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
+      <c r="N6" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="O6" s="13"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
@@ -1704,12 +1634,12 @@
       <c r="K7" s="9"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
+      <c r="N7" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="O7" s="13"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -1746,12 +1676,12 @@
       <c r="K8" s="9"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="9"/>
+      <c r="N8" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
@@ -1788,12 +1718,12 @@
       <c r="K9" s="13"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
+      <c r="N9" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="O9" s="13"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q9" s="9"/>
       <c r="R9" s="13"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
@@ -1830,12 +1760,12 @@
       <c r="K10" s="13"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="9"/>
+      <c r="N10" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="O10" s="13"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q10" s="9"/>
       <c r="R10" s="13"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
@@ -1872,12 +1802,12 @@
       <c r="K11" s="9"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
+      <c r="N11" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="O11" s="13"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
@@ -1914,12 +1844,12 @@
       <c r="K12" s="13"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
+      <c r="N12" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q12" s="9"/>
       <c r="R12" s="13"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
@@ -1937,29 +1867,58 @@
       <c r="AF12" s="13"/>
       <c r="AG12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
+    <row r="13" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="18"/>
-    </row>
-    <row r="42" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="16"/>
-      <c r="C42" s="2"/>
-    </row>
+      <c r="B14" s="17"/>
+    </row>
+    <row r="41" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="16"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:AG3"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.461805555555556" bottom="0.461805555555556" header="0.196527777777778" footer="0.196527777777778"/>
@@ -1976,10 +1935,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG1048576"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1993,7 +1952,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2028,6 +1987,11 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
     </row>
+    <row r="2" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>2</v>
@@ -2166,89 +2130,103 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>20</v>
+      <c r="B5" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
-      <c r="P5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="9"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
       <c r="AB5" s="13"/>
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="9"/>
+    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <f aca="false">A5+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
+      <c r="Y6" s="9"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="13"/>
       <c r="AD6" s="13"/>
       <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
+      <c r="AF6" s="9"/>
       <c r="AG6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="107.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="19" t="s">
+        <f aca="false">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="9"/>
@@ -2264,11 +2242,11 @@
       <c r="M7" s="12"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
-      <c r="P7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
       <c r="U7" s="13"/>
@@ -2285,469 +2263,239 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9"/>
+    <row r="8" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <f aca="false">A7+1</f>
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
       <c r="AG8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="107.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>29</v>
+        <f aca="false">A8+1</f>
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="R9" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
       <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
+      <c r="Y9" s="13"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
       <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
+      <c r="AF9" s="13"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="9"/>
+    <row r="10" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <f aca="false">A9+1</f>
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10" s="13"/>
       <c r="E10" s="10"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
+      <c r="N10" s="9"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="13"/>
+      <c r="U10" s="9"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
-      <c r="AB10" s="13"/>
+      <c r="AB10" s="9"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
       <c r="AF10" s="13"/>
       <c r="AG10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="107.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>30</v>
+        <f aca="false">A10+1</f>
+        <v>7</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="13"/>
+      <c r="R11" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="9"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="9"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="9"/>
+    <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
+        <f aca="false">A11+1</f>
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="13"/>
       <c r="E12" s="10"/>
       <c r="F12" s="12"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
+      <c r="V12" s="9"/>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
+      <c r="AC12" s="9"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="13"/>
       <c r="AF12" s="13"/>
       <c r="AG12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-    </row>
-    <row r="20" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="16"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="17"/>
+    </row>
+    <row r="42" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="16"/>
+      <c r="C42" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="4">
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:AG3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
